--- a/eagle design/mj838/BOM MJ838 - rev.1 - TCAN334 - poc.xlsx
+++ b/eagle design/mj838/BOM MJ838 - rev.1 - TCAN334 - poc.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="182">
   <si>
     <t>Qty</t>
   </si>
@@ -55,9 +55,6 @@
     <t>R601, R602</t>
   </si>
   <si>
-    <t>RESISTOR, European symbol</t>
-  </si>
-  <si>
     <t>0.1uF / 10V</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>C301, C305, C307, C405, C605, C905, RECTIFIER:ZERO-CROSS_DETECTOR:C3</t>
   </si>
   <si>
-    <t>CAPACITOR, European symbol</t>
-  </si>
-  <si>
     <t>0R</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>Headers &amp; Wire Housings .050 Micro Terminal Strip"</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -451,135 +442,48 @@
     <t>Mouser part no.</t>
   </si>
   <si>
-    <t>Mouser URL</t>
-  </si>
-  <si>
     <t>595-TLC59208FIRGYR</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/595-TLC59208FIRGYR</t>
-  </si>
-  <si>
-    <t>595-TCAN334GDCNT</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Texas-Instruments/TCAN334GDCNT?qs=gMfM3zrbS4oTuX6xdwyS1w%3D%3D</t>
-  </si>
-  <si>
-    <t>511-STM32F042G6U6</t>
-  </si>
-  <si>
     <t>403-SHT40-AD1F-R2</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Sensirion/SHT40-AD1F-R2?qs=rQFj71Wb1eVPr6MxV5k7AQ%3D%3D</t>
-  </si>
-  <si>
-    <t>848-R3119N058A-TR-FE</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Nisshinbo/R3119N058A-TR-FE?qs=1cUJgmOA5Af0FwFXzzDm9A%3D%3D</t>
-  </si>
-  <si>
     <t>998-MIC2514YM5TR</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Microchip-Technology/MIC2514YM5-TR?qs=Y3Q3JoKAO1Tdv7qkmPTpGQ%3D%3D</t>
-  </si>
-  <si>
     <t>249-85RC16PNGAMERE1</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Ramxeed/MB85RC16PN-G-AMERE1?qs=HBWAp0VN4RgxOQuNTpo74w%3D%3D</t>
-  </si>
-  <si>
     <t>584-LT1638IDD#PBF</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Analog-Devices/LT1638IDDPBF?qs=ytflclh7QUUXi43O23FFVQ%3D%3D</t>
-  </si>
-  <si>
-    <t>511-LDK320AM33R</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/STMicroelectronics/LDK320AM33R?qs=dTJS0cRn7oixDXZuzF%2F%252BoQ%3D%3D</t>
-  </si>
-  <si>
     <t>849-LBA710S</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/IXYS-Integrated-Circuits/LBA710S?qs=8uBHJDVwVqzgfef1rN5c6w%3D%3D</t>
-  </si>
-  <si>
     <t>849-LAA710S</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/IXYS-Integrated-Circuits/LAA710S?qs=h2iAtNzNjMROk9ULY39jLw%3D%3D</t>
-  </si>
-  <si>
     <t>200-FTSH10701LDVKA</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Samtec/FTSH-107-01-L-DV-K-A?qs=PB6%2FjmICvI3xEHFou4PhNg%3D%3D</t>
-  </si>
-  <si>
     <t>757-CUHS20S30H3F</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Toshiba/CUHS20S30H3F?qs=PqoDHHvF64%252BnIC9Qnnw9zg%3D%3D</t>
-  </si>
-  <si>
     <t>726-BAT60AE6327</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Infineon-Technologies/BAT-60A-E6327?qs=QdTgSBuqQUO0UTmzztPfRw%3D%3D</t>
-  </si>
-  <si>
-    <t>581-0402DD105KAT2A</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/KYOCERA-AVX/0402DD105KAT2A?qs=%252BdQmOuGyFcF61GxknQm6sA%3D%3D</t>
-  </si>
-  <si>
     <t>581-04025C104JAT2A</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/KYOCERA-AVX/04025C104JAT2A?qs=yqaQSyyJnNjAUYBPnTRwrw%3D%3D</t>
-  </si>
-  <si>
-    <t>581-04025C473KAT2A</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/KYOCERA-AVX/04025C473KAT2A?qs=%252BdQmOuGyFcHe2TwmMQe1sA%3D%3D</t>
-  </si>
-  <si>
-    <t>755-ESR10EZPD60R4</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/ROHM-Semiconductor/ESR10EZPD60R4?qs=RLRnP5jfOJUzCo%2FkKT5KYw%3D%3D</t>
-  </si>
-  <si>
-    <t>71-TNPW0402100KBEED</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Vishay-Dale/TNPW0402100KBEED?qs=1hBBIKYtCAYv4BSmxOtPrg%3D%3D</t>
-  </si>
-  <si>
     <t>798-HR30-6R-6P71</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/798-HR30-6R-6P71</t>
-  </si>
-  <si>
     <t>HR30-6R-6P(71)</t>
   </si>
   <si>
     <t>588-LVK12R100CER</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/588-LVK12R100CER</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
@@ -628,69 +532,30 @@
     <t>IC402</t>
   </si>
   <si>
-    <t>863-NUP2105LT1G</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/863-NUP2105LT1G</t>
-  </si>
-  <si>
     <t>754-CPA2512Q12R0FST</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/754-CPA2512Q12R0FST</t>
-  </si>
-  <si>
     <t xml:space="preserve">494-SMBJ5340BE3/TR13 </t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Microchip-Technology/SMBJ5340Be3-TR13?qs=pU29NIZ4ZwADRx%252BEUnNk%252Bw%3D%3D</t>
-  </si>
-  <si>
     <t>667-ERJ-P06F4300V</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Panasonic/ERJ-P06F4300V?qs=iIVTEDlrHA03uqbXGTYCpA%3D%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">833-SMBJ5356B-TP </t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Micro-Commercial-Components-MCC/SMBJ5356B-TP?qs=ZNK0BnemlqGisWsDplOJVg%3D%3D</t>
-  </si>
-  <si>
     <t>652-CHP2512JW103ELF</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Bourns/CHP2512-JW-103ELF?qs=lc2O%252BfHJPVYBS9aH96EgSw%3D%3D</t>
-  </si>
-  <si>
     <t>77-VJ1812Y103JXEAT</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Vishay-Vitramon/VJ1812Y103JXEAT?qs=yGXpg7PJZCjgj2h6HSeRQA%3D%3D</t>
-  </si>
-  <si>
     <t>667-ERJ-P06F4702V</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Panasonic/ERJ-P06F4702V?qs=sGAEpiMZZMvdGkrng054t5hHekyimr99t%2FFtE7cNkkc%3D</t>
-  </si>
-  <si>
-    <t>667-ERA-2AEB472X</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Panasonic/ERA-2AEB472X?qs=sGAEpiMZZMvdGkrng054t%2FLJJy6dM7UTaqvy82RT7tw%3D</t>
-  </si>
-  <si>
     <t>594-MCS0402MD1002BE1</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Vishay-Beyschlag/MCS0402MD1002BE100?qs=sGAEpiMZZMvdGkrng054twsDrRiZGhrjpqs%252BW5FxlP8%3D</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/STMicroelectronics/STM32F042G6U6?qs=4l9S5vBWkUK4FjFgFnucBQ%3D%3D</t>
-  </si>
-  <si>
     <t>579-PAC1952T-1E/4MX</t>
   </si>
   <si>
@@ -704,16 +569,13 @@
   </si>
   <si>
     <t>Circular Push Pull Connectors 6P</t>
-  </si>
-  <si>
-    <t>https://hr.mouser.com/ProductDetail/Microchip-Technology/PAC1952T-1E-4MX?qs=W%2FMpXkg%252BdQ7Jcjg7BRscHg%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,14 +604,6 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -768,11 +622,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -782,11 +635,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,11 +927,11 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="156.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1097,16 +948,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1122,813 +967,432 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>202</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H33"/>
-  <hyperlinks>
-    <hyperlink ref="H31" r:id="rId1"/>
-    <hyperlink ref="H30" r:id="rId2"/>
-    <hyperlink ref="H28" r:id="rId3"/>
-    <hyperlink ref="H27" r:id="rId4"/>
-    <hyperlink ref="H25" r:id="rId5"/>
-    <hyperlink ref="H24" r:id="rId6"/>
-    <hyperlink ref="H23" r:id="rId7"/>
-    <hyperlink ref="H22" r:id="rId8"/>
-    <hyperlink ref="H21" r:id="rId9"/>
-    <hyperlink ref="H20" r:id="rId10"/>
-    <hyperlink ref="H19" r:id="rId11"/>
-    <hyperlink ref="H18" r:id="rId12"/>
-    <hyperlink ref="H17" r:id="rId13"/>
-    <hyperlink ref="H10" r:id="rId14"/>
-    <hyperlink ref="H3" r:id="rId15"/>
-    <hyperlink ref="H13" r:id="rId16"/>
-    <hyperlink ref="H15" r:id="rId17"/>
-    <hyperlink ref="H4" r:id="rId18"/>
-    <hyperlink ref="H32" r:id="rId19"/>
-    <hyperlink ref="H2" r:id="rId20"/>
-    <hyperlink ref="H33" r:id="rId21"/>
-    <hyperlink ref="H8" r:id="rId22"/>
-    <hyperlink ref="H16" r:id="rId23"/>
-    <hyperlink ref="H11" r:id="rId24"/>
-    <hyperlink ref="H9" r:id="rId25"/>
-    <hyperlink ref="H6" r:id="rId26"/>
-    <hyperlink ref="H7" r:id="rId27"/>
-    <hyperlink ref="H12" r:id="rId28"/>
-    <hyperlink ref="H14" r:id="rId29"/>
-    <hyperlink ref="H5" r:id="rId30"/>
-    <hyperlink ref="H29" r:id="rId31"/>
-    <hyperlink ref="H26" r:id="rId32"/>
-  </hyperlinks>
+  <autoFilter ref="A1:F23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1946,19 +1410,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,10 +1462,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,22 +1473,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2032,22 +1496,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2055,22 +1519,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,22 +1542,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,22 +1565,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2124,22 +1588,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,22 +1611,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,16 +1634,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2187,19 +1651,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,22 +1671,22 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,16 +1694,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2247,16 +1711,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,22 +1728,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2287,22 +1751,22 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,22 +1774,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,22 +1797,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2356,22 +1820,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2379,19 +1843,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2399,19 +1863,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,16 +1883,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,19 +1900,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,19 +1920,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2476,16 +1940,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2493,16 +1957,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,16 +1974,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,22 +1991,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2550,16 +2014,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2567,16 +2031,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,16 +2048,16 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,16 +2065,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,16 +2082,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,16 +2099,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,16 +2116,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,16 +2150,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
         <v>122</v>
-      </c>
-      <c r="C39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,16 +2167,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
         <v>126</v>
-      </c>
-      <c r="C40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,16 +2184,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
         <v>130</v>
-      </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,16 +2201,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,16 +2218,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
         <v>134</v>
-      </c>
-      <c r="C43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,16 +2235,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/eagle design/mj838/BOM MJ838 - rev.1 - TCAN334 - poc.xlsx
+++ b/eagle design/mj838/BOM MJ838 - rev.1 - TCAN334 - poc.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="197">
   <si>
     <t>Qty</t>
   </si>
@@ -448,9 +448,6 @@
     <t>403-SHT40-AD1F-R2</t>
   </si>
   <si>
-    <t>998-MIC2514YM5TR</t>
-  </si>
-  <si>
     <t>249-85RC16PNGAMERE1</t>
   </si>
   <si>
@@ -475,12 +472,6 @@
     <t>581-04025C104JAT2A</t>
   </si>
   <si>
-    <t>798-HR30-6R-6P71</t>
-  </si>
-  <si>
-    <t>HR30-6R-6P(71)</t>
-  </si>
-  <si>
     <t>588-LVK12R100CER</t>
   </si>
   <si>
@@ -556,22 +547,73 @@
     <t>594-MCS0402MD1002BE1</t>
   </si>
   <si>
-    <t>579-PAC1952T-1E/4MX</t>
-  </si>
-  <si>
-    <t>PAC1952T-1E/4MX</t>
-  </si>
-  <si>
-    <t>CONN1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Circular Push Pull Connectors 6P</t>
-  </si>
-  <si>
     <t>667-ERA-2AEB472X</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>IRLML2402TRPBF</t>
+  </si>
+  <si>
+    <t>942-IRLML2402TRPBF</t>
+  </si>
+  <si>
+    <t>579-PAC1952T-2E/4MX</t>
+  </si>
+  <si>
+    <t>0.1R / 1W</t>
+  </si>
+  <si>
+    <t>C605, C801, C905, RECTIFIER:ZERO-CROSS_DETECTOR:C3</t>
+  </si>
+  <si>
+    <t>12R/3W+++</t>
+  </si>
+  <si>
+    <t>R801</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>AD8515AKSZ</t>
+  </si>
+  <si>
+    <t>AD8515</t>
+  </si>
+  <si>
+    <t>IC802</t>
+  </si>
+  <si>
+    <t>DAC121C081CISD/NOPB</t>
+  </si>
+  <si>
+    <t>DAC121C081</t>
+  </si>
+  <si>
+    <t>WSON-6</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>MOSFET-NREFLOW</t>
+  </si>
+  <si>
+    <t>APP_LOAD:Q2, Q802</t>
+  </si>
+  <si>
+    <t>IC602</t>
+  </si>
+  <si>
+    <t>926-DA121C081CISDNPB</t>
+  </si>
+  <si>
+    <t>584-AD8515AKSZ-R7</t>
+  </si>
+  <si>
+    <t>71-WSL2512R1000DEA</t>
   </si>
 </sst>
 </file>
@@ -919,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +972,7 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="156.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,64 +1013,64 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>173</v>
@@ -1039,19 +1081,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,79 +1101,79 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>182</v>
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,127 +1193,127 @@
         <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>170</v>
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>147</v>
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,79 +1321,79 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,39 +1401,39 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,23 +1441,62 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>150</v>
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1433,19 +1514,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,10 +1566,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,10 +1589,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,13 +1609,13 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,10 +1635,10 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,10 +1658,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,10 +1681,10 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1623,10 +1704,10 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1646,10 +1727,10 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,10 +1787,10 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,10 +1867,10 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1809,10 +1890,10 @@
         <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1832,10 +1913,10 @@
         <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2026,10 +2107,10 @@
         <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,16 +2305,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
